--- a/data/trans_dic/P5_6-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_6-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de luz natural suficiente en su vivienda</t>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>90,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,48%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,62; 97,15</t>
+          <t>92,73; 98,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,29; 95,51</t>
+          <t>70,06; 97,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,16; 96,83</t>
+          <t>91,8; 98,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,46; 97,12</t>
+          <t>92,02; 98,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,66; 96,35</t>
+          <t>93,48; 97,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,58; 95,64</t>
+          <t>83,61; 96,81</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,16%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,33; 99,04</t>
+          <t>94,33; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,54; 99,22</t>
+          <t>94,25; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,53; 99,17</t>
+          <t>93,4; 98,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94,98; 98,95</t>
+          <t>92,01; 98,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,99; 98,63</t>
+          <t>95,3; 99,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,09; 98,68</t>
+          <t>94,61; 98,72</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>84,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>92,07%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,12; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,9; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,95; 95,81</t>
+          <t>70,79; 92,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,55; 95,45</t>
+          <t>68,9; 92,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,87; 97,07</t>
+          <t>84,25; 96,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,42; 96,16</t>
+          <t>83,2; 96,77</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>94,83%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>93,98; 97,34</t>
+          <t>95,48; 99,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,39; 96,74</t>
+          <t>84,16; 98,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,75; 96,95</t>
+          <t>92,74; 97,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,36; 96,84</t>
+          <t>92,38; 97,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,39; 96,74</t>
+          <t>94,63; 97,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,86; 96,29</t>
+          <t>89,56; 96,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>353595</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>388713</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>416846</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>488986</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>770440</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>877700</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>339157; 361128</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>301302; 418881</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>399671; 426922</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>468225; 500455</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>748875; 784028</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>785035; 908970</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>299891</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>353566</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>339523</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>408888</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>639414</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>762454</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>287448; 304712</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>338738; 359401</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>326985; 346255</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>391377; 418846</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>624028; 648321</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>742480; 774673</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>84826</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>101768</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69845</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>85069</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>154671</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>186837</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58484; 76702</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>69702; 93956</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>141066; 162123</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>168838; 196378</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>684.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>738312</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>844047</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>826214</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>982943</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1564525</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1826991</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>721126; 748042</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>750104; 876225</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>805009; 844643</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>956426; 1004526</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1536131; 1583372</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1725489; 1862114</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>